--- a/szxc_data_cleaning/tests/import/4出租房(家庭房屋)_导入模板.xlsx
+++ b/szxc_data_cleaning/tests/import/4出租房(家庭房屋)_导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelate\Documents\smalltools\Small-Tools\szxc_data_cleaning\tests\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EDA67E-8421-4E76-AE4C-1DDAB6B25DF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E09F2F9-D851-4DD3-8CA8-9EBE7F3A82EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>序号</t>
   </si>
@@ -66,6 +66,37 @@
   </si>
   <si>
     <t>家庭房屋关联</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1234</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>320520199903062715</t>
+  </si>
+  <si>
+    <t>T1235</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1236</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>320520199903062716</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1组1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2组1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1组2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -73,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,8 +156,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +174,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,7 +230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,13 +248,61 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -535,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E331A75-7B06-47D0-AFDB-A598623C659B}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D9" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -584,11 +676,93 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1:C2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>IF(#REF!="","",(IF(MID("10X98765432",MOD(SUMPRODUCT(MID(#REF!,ROW(INDIRECT("1:17")),1)*2^(18-ROW(INDIRECT("+$G$11:17")))),11)+1,1)=MID(#REF!,18,18),"正确","错误")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>IF(#REF!="","",(IF(MID("10X98765432",MOD(SUMPRODUCT(MID(#REF!,ROW(INDIRECT("1:17")),1)*2^(18-ROW(INDIRECT("+$G$11:17")))),11)+1,1)=MID(#REF!,18,18),"正确","错误")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF(#REF!="","",(IF(MID("10X98765432",MOD(SUMPRODUCT(MID(#REF!,ROW(INDIRECT("1:17")),1)*2^(18-ROW(INDIRECT("+$G$11:17")))),11)+1,1)=MID(#REF!,18,18),"正确","错误")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF(#REF!="","",(IF(MID("10X98765432",MOD(SUMPRODUCT(MID(#REF!,ROW(INDIRECT("1:17")),1)*2^(18-ROW(INDIRECT("+$G$11:17")))),11)+1,1)=MID(#REF!,18,18),"正确","错误")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入正确的身份证" sqref="D4:D7" xr:uid="{666820CE-4477-44CF-B1FB-3334C85D5646}">
+      <formula1>15</formula1>
+      <formula2>18</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
